--- a/biology/Botanique/Thurniaceae/Thurniaceae.xlsx
+++ b/biology/Botanique/Thurniaceae/Thurniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Thurniaceae sont une famille de plantes monocotylédones. Classiquement, voir Watson &amp; Dallwitz, elle comprend 3 espèces du genre Thurnia.
 Ce sont des plantes herbacées de grande taille, à rosettes, rhizomateuses, des régions tropicales d'Amérique du Sud (nord-est du Brésil et Guyane). 
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Thurnia donné pour célébrer la découverte du genre par le botaniste britannique Everard im Thurn (1852–1932), qui fut conservateur du Guyana National Museum (en), un des premiers naturalistes à gravir le Mont Roraima (partagé entre Brésil, Guyana et Venezuela) et le dernier gouverneur des îles Fidji[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Thurnia donné pour célébrer la découverte du genre par le botaniste britannique Everard im Thurn (1852–1932), qui fut conservateur du Guyana National Museum (en), un des premiers naturalistes à gravir le Mont Roraima (partagé entre Brésil, Guyana et Venezuela) et le dernier gouverneur des îles Fidji.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le classification phylogénétique APG (1998)[2] accepte la même circonscription, mais en classification phylogénétique APG II (2003)[3] la famille est étendue à deux genres. Elle incorpore en effet l'espèce Prionium serratum qui était considérée par APG (1998) comme appartenant aux Prioniaceae, famille dédiée à cette espèce. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le classification phylogénétique APG (1998) accepte la même circonscription, mais en classification phylogénétique APG II (2003) la famille est étendue à deux genres. Elle incorpore en effet l'espèce Prionium serratum qui était considérée par APG (1998) comme appartenant aux Prioniaceae, famille dédiée à cette espèce. 
 </t>
         </is>
       </c>
@@ -574,12 +590,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010)[4], Angiosperm Phylogeny Website                        (18 mai 2010)[5] et NCBI  (22 avr. 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010), Angiosperm Phylogeny Website                        (18 mai 2010) et NCBI  (22 avr. 2010) :
 genre Prionium  E.Mey. (1832)
 genre Thurnia  Hook.f. (1883)
-Selon DELTA Angio           (22 avr. 2010)[7] :
+Selon DELTA Angio           (22 avr. 2010) :
 genre Thurnia</t>
         </is>
       </c>
@@ -608,16 +626,18 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010) :
 genre Prionium  E.Mey. (1832)
 Prionium serratum  (L.f.) Drège (1843)
 genre Thurnia  Hook.f. (1883)
 Thurnia jenmanii  Hook.f. (1883)
 Thurnia polycephala  Schnee (1943)
 Thurnia sphaerocephala  (Rudge) Hook.f. (1883)
-Selon NCBI  (22 avr. 2010)[6] :
+Selon NCBI  (22 avr. 2010) :
 genre Prionium
 Prionium palmita
 Prionium serratum
